--- a/漢字リスト.xlsx
+++ b/漢字リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.212.90.65\disk1\80回生\4組\1423\05　探究\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D6BAE3-D031-4C06-842F-9F54259CA57E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C8778B-2DD6-4CEB-8FBE-0AF647D54716}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{0BBE3F7F-3617-411C-BFCF-2A9A2BF38A46}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>漢字</t>
     <rPh sb="0" eb="2">
@@ -38,6 +38,1098 @@
     <rPh sb="0" eb="1">
       <t>ヨ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>亜熱帯</t>
+    <rPh sb="0" eb="3">
+      <t>アネッタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あねったい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>哀れむ</t>
+    <rPh sb="0" eb="1">
+      <t>アワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悪事</t>
+    <rPh sb="0" eb="2">
+      <t>アクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あくじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>圧力</t>
+    <rPh sb="0" eb="2">
+      <t>アツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あつりょく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扱う</t>
+    <rPh sb="0" eb="1">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あつか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>握る</t>
+    <rPh sb="0" eb="1">
+      <t>ニギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明暗</t>
+    <rPh sb="0" eb="2">
+      <t>メイアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めいあん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>威圧</t>
+    <rPh sb="0" eb="2">
+      <t>イアツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いあつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異論</t>
+    <rPh sb="0" eb="2">
+      <t>イロン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いろん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移民</t>
+    <rPh sb="0" eb="2">
+      <t>イミン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いみん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>偉大</t>
+    <rPh sb="0" eb="2">
+      <t>イダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いだい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>違法</t>
+    <rPh sb="0" eb="2">
+      <t>イホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いほう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>慰める</t>
+    <rPh sb="0" eb="1">
+      <t>ナグサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なぐさ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遺棄</t>
+    <rPh sb="0" eb="2">
+      <t>イキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>維持</t>
+    <rPh sb="0" eb="2">
+      <t>イジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>域内</t>
+    <rPh sb="0" eb="2">
+      <t>イキナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いきない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壱</t>
+    <rPh sb="0" eb="1">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逸話</t>
+    <rPh sb="0" eb="2">
+      <t>イツワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>檸檬</t>
+    <rPh sb="0" eb="2">
+      <t>レモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>れもん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>干支</t>
+    <rPh sb="0" eb="2">
+      <t>エト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秀逸</t>
+    <rPh sb="0" eb="2">
+      <t>シュウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゅういつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千載一遇</t>
+    <rPh sb="0" eb="4">
+      <t>センザイイチグウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せんざいいちぐう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>因果応報</t>
+    <rPh sb="0" eb="4">
+      <t>インガオウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いんがおうほう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>婚姻</t>
+    <rPh sb="0" eb="2">
+      <t>コンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんいん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光陰</t>
+    <rPh sb="0" eb="2">
+      <t>コウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こういん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日陰</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひかげ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隠居</t>
+    <rPh sb="0" eb="2">
+      <t>インキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いんきょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>韻律</t>
+    <rPh sb="0" eb="2">
+      <t>インリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いんりつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇宙</t>
+    <rPh sb="0" eb="2">
+      <t>ウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うちゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>降雨</t>
+    <rPh sb="0" eb="2">
+      <t>コウウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英雄</t>
+    <rPh sb="0" eb="2">
+      <t>エイユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えいゆう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永遠</t>
+    <rPh sb="0" eb="2">
+      <t>エイエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栄華</t>
+    <rPh sb="0" eb="2">
+      <t>エイガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>映える</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詠嘆</t>
+    <rPh sb="0" eb="2">
+      <t>エイタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えいたん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陰影</t>
+    <rPh sb="0" eb="2">
+      <t>インエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いんえい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>疫病神</t>
+    <rPh sb="0" eb="3">
+      <t>ヤクビョウガミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やくびょうがみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鋭敏</t>
+    <rPh sb="0" eb="2">
+      <t>エイビン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えいびん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御利益</t>
+    <rPh sb="0" eb="1">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>リヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごりやく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>護衛</t>
+    <rPh sb="0" eb="2">
+      <t>ゴエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごえい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>容易</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ようい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>超越</t>
+    <rPh sb="0" eb="2">
+      <t>チョウエツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょうえつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えいが</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水俣病</t>
+    <rPh sb="0" eb="3">
+      <t>ミナマタビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みなまたびょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爪楊枝</t>
+    <rPh sb="0" eb="3">
+      <t>ツマヨウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つまようじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>へんしゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>韓国</t>
+    <rPh sb="0" eb="2">
+      <t>カンコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんこく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楯状地</t>
+    <rPh sb="0" eb="3">
+      <t>タテジョウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たてじょうち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>狛犬</t>
+    <rPh sb="0" eb="2">
+      <t>コマイヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こまいぬ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>猫</t>
+    <rPh sb="0" eb="1">
+      <t>ネコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ねこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裏口</t>
+    <rPh sb="0" eb="2">
+      <t>ウラグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うらぐち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命題</t>
+    <rPh sb="0" eb="2">
+      <t>メイダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めいだい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明神</t>
+    <rPh sb="0" eb="2">
+      <t>ミョウジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みょうじん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下関</t>
+    <rPh sb="0" eb="2">
+      <t>シモノセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しものせき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南京条約</t>
+    <rPh sb="0" eb="4">
+      <t>ナンキンジョウヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なんきんじょうやく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多様性</t>
+    <rPh sb="0" eb="3">
+      <t>タヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たようせい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄鶴楼</t>
+    <rPh sb="0" eb="3">
+      <t>コウカクロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうかくろう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さくじょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教諭</t>
+    <rPh sb="0" eb="2">
+      <t>キョウユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きょうゆ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>阿蘇山</t>
+    <rPh sb="0" eb="3">
+      <t>アソサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あそさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桜島</t>
+    <rPh sb="0" eb="2">
+      <t>サクラジマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さくらじま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西瓜</t>
+    <rPh sb="0" eb="2">
+      <t>スイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すいか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海月</t>
+    <rPh sb="0" eb="2">
+      <t>クラゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くらげ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鯨</t>
+    <rPh sb="0" eb="1">
+      <t>クジラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くじら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>捕鯨</t>
+    <rPh sb="0" eb="2">
+      <t>ホゲイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほげい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情緒</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウチョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じょうちょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔女</t>
+    <rPh sb="0" eb="2">
+      <t>マジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まじょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宅急便</t>
+    <rPh sb="0" eb="3">
+      <t>タッキュウビン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たっきゅうんびん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酸化</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さんか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情操</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じょうそう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃焼</t>
+    <rPh sb="0" eb="2">
+      <t>ネンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ねんしょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森永</t>
+    <rPh sb="0" eb="2">
+      <t>モリナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もりなが</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>探求</t>
+    <rPh sb="0" eb="2">
+      <t>タンキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たんきゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>停止</t>
+    <rPh sb="0" eb="2">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ていし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定食</t>
+    <rPh sb="0" eb="2">
+      <t>テイショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ていしょく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視聴</t>
+    <rPh sb="0" eb="2">
+      <t>シチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しちょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>韓国併合</t>
+    <rPh sb="0" eb="4">
+      <t>カンコクヘイゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんこくへいごう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機敏</t>
+    <rPh sb="0" eb="2">
+      <t>キビン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きびん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>排出</t>
+    <rPh sb="0" eb="2">
+      <t>ハイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はいしゅつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊</t>
+    <rPh sb="0" eb="1">
+      <t>クマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遂行</t>
+    <rPh sb="0" eb="2">
+      <t>スイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すいこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>促進</t>
+    <rPh sb="0" eb="2">
+      <t>ソクシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そくしん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逮捕</t>
+    <rPh sb="0" eb="2">
+      <t>タイホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たいほ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鳳凰</t>
+    <rPh sb="0" eb="2">
+      <t>ホウオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほうおう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せってい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>釜山</t>
+    <rPh sb="0" eb="2">
+      <t>プサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぷさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <rPh sb="0" eb="2">
+      <t>シャンハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゃんはい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名古屋</t>
+    <rPh sb="0" eb="3">
+      <t>ナゴヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なごや</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眼鏡</t>
+    <rPh sb="0" eb="2">
+      <t>メガネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めがね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧問</t>
+    <rPh sb="0" eb="2">
+      <t>コモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こもん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弁護士</t>
+    <rPh sb="0" eb="3">
+      <t>ベンゴシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>べんごし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薩摩</t>
+    <rPh sb="0" eb="2">
+      <t>サツマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さつま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西南戦争</t>
+    <rPh sb="0" eb="4">
+      <t>セイナンセンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せいなんせんそう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千差万別</t>
+    <rPh sb="0" eb="4">
+      <t>センサバンベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せんさばんべつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海嶺</t>
+    <rPh sb="0" eb="2">
+      <t>カイレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいれい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海溝</t>
+    <rPh sb="0" eb="2">
+      <t>カイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地溝</t>
+    <rPh sb="0" eb="2">
+      <t>チコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちこう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>坂本龍馬</t>
+    <rPh sb="0" eb="4">
+      <t>サカモトリョウマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さかもとりょうま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>力学</t>
+    <rPh sb="0" eb="2">
+      <t>リキガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>りきがく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>喫煙</t>
+    <rPh sb="0" eb="2">
+      <t>キツエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きつえん</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -402,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AE53DB-9D93-4653-8430-E12CD69CFEAF}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -418,6 +1510,798 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/漢字リスト.xlsx
+++ b/漢字リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.212.90.65\disk1\80回生\4組\1423\05　探究\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C8778B-2DD6-4CEB-8FBE-0AF647D54716}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011051C3-853E-4259-AE5E-ABE71E2D98B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{0BBE3F7F-3617-411C-BFCF-2A9A2BF38A46}"/>
   </bookViews>
@@ -1496,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AE53DB-9D93-4653-8430-E12CD69CFEAF}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
